--- a/examples/wangetal2018/out/ResultFiles/AC_0.2_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.2_nfc.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="191">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -330,6 +336,9 @@
     <t>C_0_0</t>
   </si>
   <si>
+    <t>C_0_1</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -408,7 +417,10 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02</t>
+    <t>PI02_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_remaining</t>
   </si>
   <si>
     <t>PI03</t>
@@ -450,6 +462,9 @@
     <t>N02</t>
   </si>
   <si>
+    <t>N_post_C_0_1</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
@@ -483,6 +498,9 @@
     <t>N_pre_C_0_0</t>
   </si>
   <si>
+    <t>N_pre_C_0_1</t>
+  </si>
+  <si>
     <t>N03</t>
   </si>
   <si>
@@ -537,7 +555,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1179,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1201,10 +1219,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3434062510914942</v>
+        <v>0.3462008107639532</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1215,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1223,10 +1241,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.0525002132752999</v>
+        <v>0.05834847034837427</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1234,10 +1252,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.0314481230768001</v>
+        <v>0.03180184202436569</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1248,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1256,10 +1274,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006498548380954452</v>
+        <v>0.006571642081599216</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1267,10 +1285,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01540683026527373</v>
+        <v>0.01558012161793874</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1281,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1292,7 +1310,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1300,10 +1318,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.1873927625855681</v>
+        <v>0.1802172361613188</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1314,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1325,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1336,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1344,10 +1362,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.003448714440192923</v>
+        <v>0.004400313205573699</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1355,10 +1373,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.02819700771009955</v>
+        <v>0.03078435574047508</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1366,10 +1384,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001496039635322086</v>
+        <v>0.001478817862324307</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1380,7 +1398,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1391,7 +1409,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1402,7 +1420,7 @@
         <v>9.271350212696891</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1413,7 +1431,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1424,7 +1442,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1435,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1446,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1454,7 +1472,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1462,10 +1480,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>40727.22934504734</v>
+        <v>42409.14348293205</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1473,10 +1491,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>10664.21174463334</v>
+        <v>10255.8644204806</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1484,10 +1502,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>444.3421560263891</v>
+        <v>427.3276841866918</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1498,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1509,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1517,10 +1535,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>84719996.26153526</v>
+        <v>93110099.34270632</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1531,7 +1549,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1542,7 +1560,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1553,151 +1571,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>7.406825856025969</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51">
-        <v>7.417378952344467</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>9946.853522672976</v>
-      </c>
-      <c r="E51">
-        <v>17660290.88958343</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>70.89369199770995</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
-        <v>7.329230000498805</v>
+        <v>4.349511919460442</v>
       </c>
       <c r="C52">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>5832.782474234841</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>13045502.1393753</v>
       </c>
       <c r="F52">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>70.0511835210341</v>
+        <v>41.57168729543383</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1705,25 +1708,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>5.314285729848798</v>
+        <v>4.322072005971697</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>7126.563449441835</v>
+        <v>5795.985001448165</v>
       </c>
       <c r="E53">
-        <v>14480848.58416548</v>
+        <v>13004891.62591088</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>50.79278517927737</v>
+        <v>41.30942258065881</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1731,25 +1734,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
-        <v>3.282297209918662</v>
+        <v>4.29485543080648</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D54">
-        <v>4401.626204445124</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>11474741.10649014</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>31.37148161634198</v>
+        <v>41.04929248492122</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1757,25 +1760,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
-        <v>3.263430276799245</v>
+        <v>5.314285846442668</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4376.325269793323</v>
+        <v>7126.563605796547</v>
       </c>
       <c r="E55">
-        <v>11447132.70787408</v>
+        <v>14480848.75850993</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>31.19115558013662</v>
+        <v>50.79278629365618</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1783,25 +1786,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>3.24467471975354</v>
+        <v>3.28229722996558</v>
       </c>
       <c r="C56">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4401.626231328441</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>11474741.13582819</v>
       </c>
       <c r="F56">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>31.01189405217822</v>
+        <v>31.37148180794605</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1809,25 +1812,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
-        <v>5.606722676582035</v>
+        <v>3.263430278018371</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>7518.727243750041</v>
+        <v>4376.325271428196</v>
       </c>
       <c r="E57">
-        <v>14918803.7704117</v>
+        <v>11447132.70965788</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>53.58783380274077</v>
+        <v>31.19115559178876</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1835,10 +1838,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>5.545848748297974</v>
+        <v>3.244674719793817</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1853,7 +1856,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>53.00601405884097</v>
+        <v>31.01189405256319</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1861,27 +1864,79 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
+        <v>5.606722676583372</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>7518.727243751833</v>
+      </c>
+      <c r="E59">
+        <v>14918803.7704137</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>53.58783380275355</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60">
+        <v>5.545848748297974</v>
+      </c>
+      <c r="C60">
+        <v>12.5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G60">
+        <v>53.00601405884097</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61">
         <v>5.486222170395695</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>7357.133654944034</v>
       </c>
-      <c r="E59">
+      <c r="E61">
         <v>14738179.20301044</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>52.43611621812924</v>
       </c>
-      <c r="H59">
+      <c r="H61">
         <v>0</v>
       </c>
     </row>
@@ -1892,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,58 +1955,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1959,55 +2014,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F2">
-        <v>113.0404226743388</v>
+        <v>112.9539099866435</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
         <v>4.865822962046021</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="M2">
-        <v>21.747985</v>
+        <v>14.49865666666666</v>
       </c>
       <c r="N2">
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>3635101.480000294</v>
+        <v>4088689.562409612</v>
       </c>
       <c r="P2">
-        <v>16.26227783377047</v>
+        <v>14.42599847273291</v>
       </c>
       <c r="Q2">
-        <v>0.03335254093811696</v>
+        <v>0.02949605726354898</v>
       </c>
       <c r="R2">
-        <v>26.29881256980918</v>
+        <v>24.77915616505805</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2015,55 +2070,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F3">
-        <v>112.6819349858099</v>
+        <v>112.7438879065741</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M3">
-        <v>3.106855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N3">
         <v>4865822.962046022</v>
       </c>
       <c r="O3">
-        <v>4711061.120873293</v>
+        <v>4327372.907744729</v>
       </c>
       <c r="P3">
-        <v>12.45642840707724</v>
+        <v>13.59184363373004</v>
       </c>
       <c r="Q3">
-        <v>0.02537151810753613</v>
+        <v>0.02774854923905256</v>
       </c>
       <c r="R3">
-        <v>23.05340868062423</v>
+        <v>24.07456561880907</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2071,111 +2126,111 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F4">
-        <v>112.6819344846315</v>
+        <v>112.7438878399257</v>
       </c>
       <c r="G4">
         <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4">
         <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M4">
-        <v>18.64113</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N4">
-        <v>4711061.120873293</v>
+        <v>4327372.907744729</v>
       </c>
       <c r="O4">
-        <v>3644029.018336546</v>
+        <v>4091786.905859647</v>
       </c>
       <c r="P4">
-        <v>16.17038995601176</v>
+        <v>14.38800341204732</v>
       </c>
       <c r="Q4">
-        <v>0.03316199122283201</v>
+        <v>0.0294177827718707</v>
       </c>
       <c r="R4">
-        <v>26.26627784054579</v>
+        <v>24.76963093426072</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F5">
-        <v>112.3287675995227</v>
+        <v>112.5356568283177</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>31.5</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="M5">
-        <v>19.5731865</v>
+        <v>14.49865666666667</v>
       </c>
       <c r="N5">
         <v>4865822.962046022</v>
       </c>
       <c r="O5">
-        <v>3791909.936519409</v>
+        <v>4094871.248456996</v>
       </c>
       <c r="P5">
-        <v>15.48458721572083</v>
+        <v>14.35043730230117</v>
       </c>
       <c r="Q5">
-        <v>0.0317229302218178</v>
+        <v>0.02934039119084065</v>
       </c>
       <c r="R5">
-        <v>25.74365437493033</v>
+        <v>24.76015612013782</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2183,55 +2238,55 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F6">
-        <v>92.54311639569025</v>
+        <v>112.3287669905703</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>31.5</v>
       </c>
       <c r="M6">
-        <v>0.621371</v>
+        <v>19.5731865</v>
       </c>
       <c r="N6">
-        <v>3791909.936519409</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O6">
-        <v>3765145.806190006</v>
+        <v>3791909.921882425</v>
       </c>
       <c r="P6">
-        <v>12.84883628515771</v>
+        <v>15.48458615839746</v>
       </c>
       <c r="Q6">
-        <v>0.02632795740323768</v>
+        <v>0.0317229280588778</v>
       </c>
       <c r="R6">
-        <v>25.83602600159858</v>
+        <v>25.74365442518802</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2239,55 +2294,55 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F7">
-        <v>92.28711984753724</v>
+        <v>92.54311611996295</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>4.865822962046021</v>
       </c>
       <c r="L7">
-        <v>32.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>20.1945575</v>
+        <v>0.621371</v>
       </c>
       <c r="N7">
-        <v>4865822.962046022</v>
+        <v>3791909.921882425</v>
       </c>
       <c r="O7">
-        <v>4142125.007367771</v>
+        <v>3765145.790995867</v>
       </c>
       <c r="P7">
-        <v>11.63199850713021</v>
+        <v>12.84883534967743</v>
       </c>
       <c r="Q7">
-        <v>0.02377515187245336</v>
+        <v>0.02632795548913939</v>
       </c>
       <c r="R7">
-        <v>24.61628524939773</v>
+        <v>25.8360260543091</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2295,55 +2350,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F8">
-        <v>92.12900800463797</v>
+        <v>92.28712036338565</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="M8">
-        <v>9.320565</v>
+        <v>20.1945575</v>
       </c>
       <c r="N8">
         <v>4865822.962046022</v>
       </c>
       <c r="O8">
-        <v>4547542.06642295</v>
+        <v>4142125.00367379</v>
       </c>
       <c r="P8">
-        <v>10.55864448336978</v>
+        <v>11.63199866717064</v>
       </c>
       <c r="Q8">
-        <v>0.02152707609740526</v>
+        <v>0.02377515220012881</v>
       </c>
       <c r="R8">
-        <v>23.47317182488563</v>
+        <v>24.61628526055097</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2351,55 +2406,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F9">
-        <v>92.12900800463487</v>
+        <v>92.1290080441278</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9">
         <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>10.8739925</v>
+        <v>9.320565</v>
       </c>
       <c r="N9">
-        <v>4547542.06642295</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4144759.664082654</v>
+        <v>4547542.066325596</v>
       </c>
       <c r="P9">
-        <v>11.60456968213999</v>
+        <v>10.55864449609211</v>
       </c>
       <c r="Q9">
-        <v>0.02371868924121322</v>
+        <v>0.02152707612335631</v>
       </c>
       <c r="R9">
-        <v>24.60833411004888</v>
+        <v>23.47317182514211</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2407,111 +2462,111 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F10">
-        <v>91.97180456827009</v>
+        <v>92.12900804412784</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>32.5</v>
+        <v>17.5</v>
       </c>
       <c r="M10">
-        <v>20.1945575</v>
+        <v>10.8739925</v>
       </c>
       <c r="N10">
-        <v>4865822.962046022</v>
+        <v>4547542.066325596</v>
       </c>
       <c r="O10">
-        <v>4147389.711680747</v>
+        <v>4144759.66385087</v>
       </c>
       <c r="P10">
-        <v>11.57730330956396</v>
+        <v>11.60456969724624</v>
       </c>
       <c r="Q10">
-        <v>0.02366256141125846</v>
+        <v>0.02371868927212418</v>
       </c>
       <c r="R10">
-        <v>24.60040422644233</v>
+        <v>24.60833411074805</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F11">
-        <v>91.81550457378179</v>
+        <v>91.97180456974841</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>32.5</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>20.1945575</v>
       </c>
       <c r="N11">
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>3706654.547391173</v>
+        <v>4147389.711672968</v>
       </c>
       <c r="P11">
-        <v>12.95114619798592</v>
+        <v>11.57730331018795</v>
       </c>
       <c r="Q11">
-        <v>0.02654834295934143</v>
+        <v>0.02366256141253498</v>
       </c>
       <c r="R11">
-        <v>26.0412592967248</v>
+        <v>24.60040422646578</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2519,31 +2574,31 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F12">
-        <v>91.545421805205</v>
+        <v>91.81550457381405</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
         <v>4.865822962046021</v>
@@ -2558,48 +2613,48 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O12">
-        <v>3714378.11305188</v>
+        <v>3706654.547390902</v>
       </c>
       <c r="P12">
-        <v>12.88592067707877</v>
+        <v>12.95114619800375</v>
       </c>
       <c r="Q12">
-        <v>0.02641321795637759</v>
+        <v>0.02654834295937801</v>
       </c>
       <c r="R12">
-        <v>26.01389023009616</v>
+        <v>26.04125929672577</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F13">
-        <v>91.27827140904245</v>
+        <v>91.54542180520541</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13">
         <v>4.865822962046021</v>
@@ -2614,16 +2669,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O13">
-        <v>3721980.167759434</v>
+        <v>3714378.113051876</v>
       </c>
       <c r="P13">
-        <v>12.82179998112026</v>
+        <v>12.885920677079</v>
       </c>
       <c r="Q13">
-        <v>0.02628039657406875</v>
+        <v>0.02641321795637806</v>
       </c>
       <c r="R13">
-        <v>25.98703234059809</v>
+        <v>26.01389023009617</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2631,31 +2686,31 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F14">
-        <v>91.01399329891385</v>
+        <v>91.27827140904245</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>4.865822962046021</v>
@@ -2670,15 +2725,71 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O14">
+        <v>3721980.167759434</v>
+      </c>
+      <c r="P14">
+        <v>12.82179998112027</v>
+      </c>
+      <c r="Q14">
+        <v>0.02628039657406876</v>
+      </c>
+      <c r="R14">
+        <v>25.98703234059809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15">
+        <v>91.01399329891385</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>31.06855</v>
+      </c>
+      <c r="N15">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O15">
         <v>3729463.867206434</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>12.7587518357478</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>0.02614981122765013</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <v>25.96067030926321</v>
       </c>
     </row>
@@ -2689,7 +2800,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2697,58 +2808,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2756,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G2">
-        <v>21.747985</v>
+        <v>14.49865666666667</v>
       </c>
       <c r="H2">
-        <v>1.338565921423913</v>
+        <v>1.190069064372404</v>
       </c>
       <c r="I2">
-        <v>70.89369199770995</v>
+        <v>41.57168729543383</v>
       </c>
       <c r="J2">
-        <v>7.417378952344467</v>
+        <v>4.349511919460442</v>
       </c>
       <c r="K2">
-        <v>9946.853522672976</v>
+        <v>5832.782474234841</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7.417378952344467</v>
+        <v>4.349511919460442</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2798,51 +2909,54 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>17660290.88958343</v>
+        <v>13045502.1393753</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>17660290.88958343</v>
+        <v>13045502.1393753</v>
       </c>
     </row>
     <row r="3" spans="1:18">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="G3">
-        <v>43.49597</v>
+        <v>28.99731333333333</v>
       </c>
       <c r="H3">
-        <v>1.3352865571491</v>
+        <v>1.189168222587035</v>
       </c>
       <c r="I3">
-        <v>70.0511835210341</v>
+        <v>41.30942258065881</v>
       </c>
       <c r="J3">
-        <v>7.329230000498805</v>
+        <v>4.322072005971697</v>
       </c>
       <c r="K3">
-        <v>9828.644015268908</v>
+        <v>5795.985001448165</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.5</v>
+        <v>4.322072005971697</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2851,54 +2965,51 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13004891.62591088</v>
       </c>
       <c r="Q3">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>16916025.69007904</v>
+        <v>13004891.62591088</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F4">
-        <v>102.5</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>63.6905275</v>
+        <v>43.49597</v>
       </c>
       <c r="H4">
-        <v>1.292333208994582</v>
+        <v>1.188272516231012</v>
       </c>
       <c r="I4">
-        <v>50.79278517927737</v>
+        <v>41.04929248492122</v>
       </c>
       <c r="J4">
-        <v>5.314285729848798</v>
+        <v>4.29485543080648</v>
       </c>
       <c r="K4">
-        <v>7126.563449441835</v>
+        <v>5759.487029820106</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.314285729848798</v>
+        <v>12.5</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -2907,13 +3018,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>14480848.58416548</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R4">
-        <v>14480848.58416548</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2921,40 +3032,40 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F5">
-        <v>135</v>
+        <v>102.5</v>
       </c>
       <c r="G5">
-        <v>83.885085</v>
+        <v>63.6905275</v>
       </c>
       <c r="H5">
-        <v>1.174716589526144</v>
+        <v>1.292333214209756</v>
       </c>
       <c r="I5">
-        <v>31.37148161634198</v>
+        <v>50.79278629365618</v>
       </c>
       <c r="J5">
-        <v>3.282297209918662</v>
+        <v>5.314285846442668</v>
       </c>
       <c r="K5">
-        <v>4401.626204445124</v>
+        <v>7126.563605796547</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.282297209918662</v>
+        <v>5.314285846442668</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -2963,13 +3074,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>11474741.10649014</v>
+        <v>14480848.75850993</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>11474741.10649014</v>
+        <v>14480848.75850993</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2977,40 +3088,40 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F6">
-        <v>167.5</v>
+        <v>135</v>
       </c>
       <c r="G6">
-        <v>104.0796425</v>
+        <v>83.885085</v>
       </c>
       <c r="H6">
-        <v>1.17396986952269</v>
+        <v>1.174716590573766</v>
       </c>
       <c r="I6">
-        <v>31.19115558013662</v>
+        <v>31.37148180794605</v>
       </c>
       <c r="J6">
-        <v>3.263430276799245</v>
+        <v>3.28229722996558</v>
       </c>
       <c r="K6">
-        <v>4376.325269793323</v>
+        <v>4401.626231328441</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.263430276799245</v>
+        <v>3.28229722996558</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -3019,51 +3130,54 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>11447132.70787408</v>
+        <v>11474741.13582819</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>11447132.70787408</v>
+        <v>11474741.13582819</v>
       </c>
     </row>
     <row r="7" spans="1:18">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>167.5</v>
       </c>
       <c r="G7">
-        <v>124.2742</v>
+        <v>104.0796425</v>
       </c>
       <c r="H7">
-        <v>1.173225402074436</v>
+        <v>1.173969869588341</v>
       </c>
       <c r="I7">
-        <v>31.01189405217822</v>
+        <v>31.19115559178876</v>
       </c>
       <c r="J7">
-        <v>3.24467471975354</v>
+        <v>3.263430278018371</v>
       </c>
       <c r="K7">
-        <v>4351.173692683892</v>
+        <v>4376.325271428196</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.5</v>
+        <v>3.263430278018371</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -3072,54 +3186,51 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>11447132.70965788</v>
       </c>
       <c r="Q7">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>16916025.69007904</v>
+        <v>11447132.70965788</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8">
-        <v>2</v>
-      </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>155.34275</v>
+        <v>124.2742</v>
       </c>
       <c r="H8">
-        <v>1.312726314209857</v>
+        <v>1.173225402076636</v>
       </c>
       <c r="I8">
-        <v>53.58783380274077</v>
+        <v>31.01189405256319</v>
       </c>
       <c r="J8">
-        <v>5.606722676582035</v>
+        <v>3.244674719793817</v>
       </c>
       <c r="K8">
-        <v>7518.727243750041</v>
+        <v>4351.173692737905</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.606722676582035</v>
+        <v>12.5</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -3128,51 +3239,54 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>14918803.7704117</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R8">
-        <v>14918803.7704117</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G9">
-        <v>186.4113</v>
+        <v>155.34275</v>
       </c>
       <c r="H9">
-        <v>1.309996670761144</v>
+        <v>1.312726314209953</v>
       </c>
       <c r="I9">
-        <v>53.00601405884097</v>
+        <v>53.58783380275355</v>
       </c>
       <c r="J9">
-        <v>5.545848748297974</v>
+        <v>5.606722676583372</v>
       </c>
       <c r="K9">
-        <v>7437.094088442549</v>
+        <v>7518.727243751833</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.5</v>
+        <v>5.606722676583372</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -3181,54 +3295,51 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>14918803.7704137</v>
       </c>
       <c r="Q9">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>16916025.69007904</v>
+        <v>14918803.7704137</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10">
-        <v>3</v>
-      </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F10">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G10">
-        <v>217.47985</v>
+        <v>186.4113</v>
       </c>
       <c r="H10">
-        <v>1.307321034162082</v>
+        <v>1.309996670761145</v>
       </c>
       <c r="I10">
-        <v>52.43611621812924</v>
+        <v>53.00601405884097</v>
       </c>
       <c r="J10">
-        <v>5.486222170395695</v>
+        <v>5.545848748297974</v>
       </c>
       <c r="K10">
-        <v>7357.133654944034</v>
+        <v>7437.094088442549</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.486222170395695</v>
+        <v>12.5</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -3237,12 +3348,68 @@
         <v>0.357</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="R10">
+        <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>350</v>
+      </c>
+      <c r="G11">
+        <v>217.47985</v>
+      </c>
+      <c r="H11">
+        <v>1.307321034162082</v>
+      </c>
+      <c r="I11">
+        <v>52.43611621812924</v>
+      </c>
+      <c r="J11">
+        <v>5.486222170395695</v>
+      </c>
+      <c r="K11">
+        <v>7357.133654944034</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.486222170395695</v>
+      </c>
+      <c r="N11">
+        <v>0.78</v>
+      </c>
+      <c r="O11">
+        <v>0.357</v>
+      </c>
+      <c r="P11">
         <v>14738179.20301044</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>14738179.20301044</v>
       </c>
     </row>
@@ -3253,7 +3420,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3261,15 +3428,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3277,15 +3444,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>3635101.480000294</v>
+        <v>4088689.562409612</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>4865822.962046022</v>
@@ -3293,23 +3460,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>4711061.120873293</v>
+        <v>4327372.907744729</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B6">
-        <v>3644029.018336546</v>
+        <v>4091786.905859647</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>4865822.962046022</v>
@@ -3317,39 +3484,39 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B8">
-        <v>3791909.936519409</v>
+        <v>4094871.248456996</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B9">
-        <v>3765145.806190006</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B10">
-        <v>4865822.962046022</v>
+        <v>3791909.921882425</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B11">
-        <v>4142125.007367771</v>
+        <v>3765145.790995867</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <v>4865822.962046022</v>
@@ -3357,39 +3524,39 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B13">
-        <v>4547542.06642295</v>
+        <v>4142125.00367379</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B14">
-        <v>4144759.664082654</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B15">
-        <v>4865822.962046022</v>
+        <v>4547542.066325596</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B16">
-        <v>4147389.711680747</v>
+        <v>4144759.66385087</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>4865822.962046022</v>
@@ -3397,15 +3564,15 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B18">
-        <v>3706654.547391173</v>
+        <v>4147389.711672968</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B19">
         <v>4865822.962046022</v>
@@ -3413,15 +3580,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B20">
-        <v>3714378.11305188</v>
+        <v>3706654.547390902</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B21">
         <v>4865822.962046022</v>
@@ -3429,15 +3596,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B22">
-        <v>3721980.167759434</v>
+        <v>3714378.113051876</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B23">
         <v>4865822.962046022</v>
@@ -3445,9 +3612,25 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B24">
+        <v>3721980.167759434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26">
         <v>3729463.867206434</v>
       </c>
     </row>
@@ -3466,36 +3649,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565120383247</v>
+        <v>19.78565087060738</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3504,15 +3687,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520419604258</v>
+        <v>1150.520400227476</v>
       </c>
       <c r="G2">
-        <v>1.703947045709899E-06</v>
+        <v>1.977152549848717E-08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
@@ -3535,7 +3718,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>

--- a/examples/wangetal2018/out/ResultFiles/AC_0.2_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_0.2_nfc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="227">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -351,6 +351,9 @@
     <t>C_1_2</t>
   </si>
   <si>
+    <t>C_1_3</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -411,90 +414,192 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_remaining</t>
-  </si>
-  <si>
-    <t>PI02_pre_C_0_1</t>
-  </si>
-  <si>
-    <t>PI02_remaining</t>
-  </si>
-  <si>
-    <t>PI03</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_1</t>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
+  </si>
+  <si>
+    <t>PI01</t>
+  </si>
+  <si>
+    <t>PI02_0_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
+  </si>
+  <si>
+    <t>PI02</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI03_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_remaining</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI04_1_remaining</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_2</t>
   </si>
   <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>PI05_remaining</t>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
   </si>
   <si>
     <t>PI06</t>
   </si>
   <si>
-    <t>PI07_remaining</t>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_remaining</t>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N_post_C_1_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_0</t>
+    <t>N04_0</t>
   </si>
   <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N_post_C_1_2</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_2</t>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N_post_C_1_3</t>
+  </si>
+  <si>
+    <t>N05_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N_pre_C_0_0</t>
   </si>
   <si>
@@ -511,6 +616,9 @@
   </si>
   <si>
     <t>N_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_3</t>
   </si>
   <si>
     <t>N06</t>
@@ -1197,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1327,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3462008107639532</v>
+        <v>0.3669336563873711</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1241,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.05834847034837427</v>
+        <v>0.06519129667489668</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1252,7 +1360,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03180184202436569</v>
+        <v>0.03179962138373985</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1274,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006571642081599216</v>
+        <v>0.00657118320077798</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1285,7 +1393,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01558012161793874</v>
+        <v>0.01557903369822032</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1307,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1318,7 +1426,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.1802172361613188</v>
+        <v>0.1918832502923665</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1362,7 +1470,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.004400313205573699</v>
+        <v>0.004666732847432012</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1373,7 +1481,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.03078435574047508</v>
+        <v>0.03265772506014108</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1384,7 +1492,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001478817862324307</v>
+        <v>0.001566801507813138</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1472,7 +1580,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1480,7 +1588,7 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>42409.14348293205</v>
+        <v>46271.03677623437</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -1491,7 +1599,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>10255.8644204806</v>
+        <v>10919.75796254079</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1502,7 +1610,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>427.3276841866918</v>
+        <v>454.9899151058661</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1535,7 +1643,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>93110099.34270632</v>
+        <v>104036865.975329</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -1609,7 +1717,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1685,22 +1793,22 @@
         <v>102</v>
       </c>
       <c r="B52">
-        <v>4.349511919460442</v>
+        <v>4.620898857823486</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>5832.782474234841</v>
+        <v>6196.717786318451</v>
       </c>
       <c r="E52">
-        <v>13045502.1393753</v>
+        <v>13447784.74391999</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>41.57168729543383</v>
+        <v>44.16554452507287</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1711,22 +1819,22 @@
         <v>103</v>
       </c>
       <c r="B53">
-        <v>4.322072005971697</v>
+        <v>4.589017185282112</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>5795.985001448165</v>
+        <v>6153.963825807017</v>
       </c>
       <c r="E53">
-        <v>13004891.62591088</v>
+        <v>13400466.03344767</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>41.30942258065881</v>
+        <v>43.86082644500153</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1737,7 +1845,7 @@
         <v>104</v>
       </c>
       <c r="B54">
-        <v>4.29485543080648</v>
+        <v>4.557128663762801</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1752,7 +1860,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>41.04929248492122</v>
+        <v>43.55604290389126</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1763,22 +1871,22 @@
         <v>105</v>
       </c>
       <c r="B55">
-        <v>5.314285846442668</v>
+        <v>5.199619060371232</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>7126.563605796547</v>
+        <v>6972.793152339029</v>
       </c>
       <c r="E55">
-        <v>14480848.75850993</v>
+        <v>14309488.92802266</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>50.79278629365618</v>
+        <v>49.69682613490681</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1789,22 +1897,22 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>3.28229722996558</v>
+        <v>2.972032942295563</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4401.626231328441</v>
+        <v>3985.555616277196</v>
       </c>
       <c r="E56">
-        <v>11474741.13582819</v>
+        <v>11021433.00223319</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>31.37148180794605</v>
+        <v>28.40604334386236</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1815,22 +1923,22 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>3.263430278018371</v>
+        <v>2.660389197684499</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>4376.325271428196</v>
+        <v>3567.635121878867</v>
       </c>
       <c r="E57">
-        <v>11447132.70965788</v>
+        <v>10567628.10021256</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>31.19115559178876</v>
+        <v>25.42742033087925</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1841,22 +1949,22 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>3.244674719793817</v>
+        <v>2.64858849206394</v>
       </c>
       <c r="C58">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>3551.810139627585</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>10550474.22654086</v>
       </c>
       <c r="F58">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>31.01189405256319</v>
+        <v>25.31463175758476</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1867,22 +1975,22 @@
         <v>109</v>
       </c>
       <c r="B59">
-        <v>5.606722676583372</v>
+        <v>2.636765853031398</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D59">
-        <v>7518.727243751833</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>14918803.7704137</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G59">
-        <v>53.58783380275355</v>
+        <v>25.20163354951717</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -1893,22 +2001,22 @@
         <v>110</v>
       </c>
       <c r="B60">
-        <v>5.545848748297974</v>
+        <v>5.97826501473844</v>
       </c>
       <c r="C60">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>8016.972950064543</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>15477160.67336135</v>
       </c>
       <c r="F60">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>53.00601405884097</v>
+        <v>57.13895452268778</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -1919,24 +2027,50 @@
         <v>111</v>
       </c>
       <c r="B61">
-        <v>5.486222170395695</v>
+        <v>5.905876802758123</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D61">
-        <v>7357.133654944034</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>14738179.20301044</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G61">
-        <v>52.43611621812924</v>
+        <v>56.44708376384304</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62">
+        <v>5.83554919682159</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>7825.588183921689</v>
+      </c>
+      <c r="E62">
+        <v>15262430.26759074</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>55.77490782861931</v>
+      </c>
+      <c r="H62">
         <v>0</v>
       </c>
     </row>
@@ -1947,7 +2081,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1955,58 +2089,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2014,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F2">
-        <v>112.9539099866435</v>
+        <v>113.0922305504194</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -2044,25 +2178,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L2">
-        <v>23.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>14.49865666666666</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4088689.562409612</v>
+        <v>4427462.918581173</v>
       </c>
       <c r="P2">
-        <v>14.42599847273291</v>
+        <v>12.47766632642912</v>
       </c>
       <c r="Q2">
-        <v>0.02949605726354898</v>
+        <v>0.02516059761349215</v>
       </c>
       <c r="R2">
-        <v>24.77915616505805</v>
+        <v>24.07718013670485</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2070,19 +2204,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F3">
-        <v>112.7438879065741</v>
+        <v>113.092224907112</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2100,25 +2234,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>16.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="M3">
-        <v>10.35618333333334</v>
+        <v>6.213709999999999</v>
       </c>
       <c r="N3">
-        <v>4865822.962046022</v>
+        <v>4427462.918581173</v>
       </c>
       <c r="O3">
-        <v>4327372.907744729</v>
+        <v>4066380.087520617</v>
       </c>
       <c r="P3">
-        <v>13.59184363373004</v>
+        <v>12.5009854916184</v>
       </c>
       <c r="Q3">
-        <v>0.02774854923905256</v>
+        <v>0.02523955993254112</v>
       </c>
       <c r="R3">
-        <v>24.07456561880907</v>
+        <v>25.1672636273331</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2126,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F4">
-        <v>112.7438878399257</v>
+        <v>112.8701631804663</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2156,25 +2290,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>6.666666666666664</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="M4">
-        <v>4.142473333333332</v>
+        <v>2.071236666666668</v>
       </c>
       <c r="N4">
-        <v>4327372.907744729</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O4">
-        <v>4091786.905859647</v>
+        <v>4760595.472101057</v>
       </c>
       <c r="P4">
-        <v>14.38800341204732</v>
+        <v>12.36359079174688</v>
       </c>
       <c r="Q4">
-        <v>0.0294177827718707</v>
+        <v>0.02490051746145235</v>
       </c>
       <c r="R4">
-        <v>24.76963093426072</v>
+        <v>23.18326960242841</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2182,19 +2316,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F5">
-        <v>112.5356568283177</v>
+        <v>112.8701629447994</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2212,45 +2346,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>23.33333333333334</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M5">
-        <v>14.49865666666667</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N5">
-        <v>4865822.962046022</v>
+        <v>4760595.472101057</v>
       </c>
       <c r="O5">
-        <v>4094871.248456996</v>
+        <v>4312888.561809869</v>
       </c>
       <c r="P5">
-        <v>14.35043730230117</v>
+        <v>12.39399417151668</v>
       </c>
       <c r="Q5">
-        <v>0.02934039119084065</v>
+        <v>0.02500196871960631</v>
       </c>
       <c r="R5">
-        <v>24.76015612013782</v>
+        <v>24.40831998517606</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F6">
-        <v>112.3287669905703</v>
+        <v>112.8701624135459</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2268,45 +2402,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N6">
-        <v>4865822.962046022</v>
+        <v>4312888.561809869</v>
       </c>
       <c r="O6">
-        <v>3791909.921882425</v>
+        <v>4069771.039548116</v>
       </c>
       <c r="P6">
-        <v>15.48458615839746</v>
+        <v>12.40927892005199</v>
       </c>
       <c r="Q6">
-        <v>0.0317229280588778</v>
+        <v>0.02505409328594885</v>
       </c>
       <c r="R6">
-        <v>25.74365442518802</v>
+        <v>25.15637671690195</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F7">
-        <v>92.54311611996295</v>
+        <v>112.6491392073757</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2324,45 +2458,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="M7">
-        <v>0.621371</v>
+        <v>5.178091666666668</v>
       </c>
       <c r="N7">
-        <v>3791909.921882425</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O7">
-        <v>3765145.790995867</v>
+        <v>4599097.546686064</v>
       </c>
       <c r="P7">
-        <v>12.84883534967743</v>
+        <v>12.38498497092171</v>
       </c>
       <c r="Q7">
-        <v>0.02632795548913939</v>
+        <v>0.02495749620331185</v>
       </c>
       <c r="R7">
-        <v>25.8360260543091</v>
+        <v>23.60528054274031</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F8">
-        <v>92.28712036338565</v>
+        <v>112.6491391812656</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2380,25 +2514,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>32.5</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>20.1945575</v>
+        <v>9.320565</v>
       </c>
       <c r="N8">
-        <v>4865822.962046022</v>
+        <v>4599097.546686064</v>
       </c>
       <c r="O8">
-        <v>4142125.00367379</v>
+        <v>4073185.409801771</v>
       </c>
       <c r="P8">
-        <v>11.63199866717064</v>
+        <v>12.41951311406938</v>
       </c>
       <c r="Q8">
-        <v>0.02377515220012881</v>
+        <v>0.02507444229395871</v>
       </c>
       <c r="R8">
-        <v>24.61628526055097</v>
+        <v>25.14542888320394</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2406,19 +2540,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F9">
-        <v>92.1290080441278</v>
+        <v>112.4296184240329</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2436,25 +2570,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>9.320565</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4547542.066325596</v>
+        <v>4349434.559984447</v>
       </c>
       <c r="P9">
-        <v>10.55864449609211</v>
+        <v>12.42928270913904</v>
       </c>
       <c r="Q9">
-        <v>0.02152707612335631</v>
+        <v>0.02507000427135664</v>
       </c>
       <c r="R9">
-        <v>23.47317182514211</v>
+        <v>24.30121578682969</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2462,19 +2596,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F10">
-        <v>92.12900804412784</v>
+        <v>112.429618422974</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2492,25 +2626,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>17.5</v>
+        <v>10.25000000000001</v>
       </c>
       <c r="M10">
-        <v>10.8739925</v>
+        <v>6.369052750000007</v>
       </c>
       <c r="N10">
-        <v>4547542.066325596</v>
+        <v>4349434.559984447</v>
       </c>
       <c r="O10">
-        <v>4144759.66385087</v>
+        <v>3975854.518199351</v>
       </c>
       <c r="P10">
-        <v>11.60456969724624</v>
+        <v>12.45318816623289</v>
       </c>
       <c r="Q10">
-        <v>0.02371868927212418</v>
+        <v>0.02515112645042848</v>
       </c>
       <c r="R10">
-        <v>24.60833411074805</v>
+        <v>25.463231798922</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2518,19 +2652,19 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F11">
-        <v>91.97180456974841</v>
+        <v>112.1791464066949</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2548,45 +2682,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>32.5</v>
+        <v>5.499999999999993</v>
       </c>
       <c r="M11">
-        <v>20.1945575</v>
+        <v>3.417540499999995</v>
       </c>
       <c r="N11">
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>4147389.711672968</v>
+        <v>4693014.32323207</v>
       </c>
       <c r="P11">
-        <v>11.57730331018795</v>
+        <v>12.3075205174481</v>
       </c>
       <c r="Q11">
-        <v>0.02366256141253498</v>
+        <v>0.02479352418062126</v>
       </c>
       <c r="R11">
-        <v>24.60040422646578</v>
+        <v>23.35709428330448</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F12">
-        <v>91.81550457381405</v>
+        <v>92.39349554013306</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2604,45 +2738,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>4865822.962046022</v>
+        <v>4693014.32323207</v>
       </c>
       <c r="O12">
-        <v>3706654.547390902</v>
+        <v>4324128.083916678</v>
       </c>
       <c r="P12">
-        <v>12.95114619800375</v>
+        <v>10.16711865191663</v>
       </c>
       <c r="Q12">
-        <v>0.02654834295937801</v>
+        <v>0.02050898486771386</v>
       </c>
       <c r="R12">
-        <v>26.04125929672577</v>
+        <v>24.37523000222854</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F13">
-        <v>91.54542180520541</v>
+        <v>92.39349554010131</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -2660,45 +2794,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>4.333333333333343</v>
       </c>
       <c r="M13">
-        <v>31.06855</v>
+        <v>2.692607666666673</v>
       </c>
       <c r="N13">
-        <v>4865822.962046022</v>
+        <v>4324128.083916678</v>
       </c>
       <c r="O13">
-        <v>3714378.113051876</v>
+        <v>4219533.033288239</v>
       </c>
       <c r="P13">
-        <v>12.885920677079</v>
+        <v>10.17529758434373</v>
       </c>
       <c r="Q13">
-        <v>0.02641321795637806</v>
+        <v>0.02053257446466895</v>
       </c>
       <c r="R13">
-        <v>26.01389023009617</v>
+        <v>24.68847610332003</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F14">
-        <v>91.27827140904245</v>
+        <v>92.25032903769505</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2716,45 +2850,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="M14">
-        <v>31.06855</v>
+        <v>7.352890166666665</v>
       </c>
       <c r="N14">
         <v>4865822.962046022</v>
       </c>
       <c r="O14">
-        <v>3721980.167759434</v>
+        <v>4610217.933448978</v>
       </c>
       <c r="P14">
-        <v>12.82179998112027</v>
+        <v>10.16866213830813</v>
       </c>
       <c r="Q14">
-        <v>0.02628039657406876</v>
+        <v>0.02049054186909231</v>
       </c>
       <c r="R14">
-        <v>25.98703234059809</v>
+        <v>23.57548007896672</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F15">
-        <v>91.01399329891385</v>
+        <v>92.25032903769414</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2772,25 +2906,977 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>14.16666666666669</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>8.802755833333347</v>
       </c>
       <c r="N15">
+        <v>4610217.933448978</v>
+      </c>
+      <c r="O15">
+        <v>4283280.835380175</v>
+      </c>
+      <c r="P15">
+        <v>10.19556733607886</v>
+      </c>
+      <c r="Q15">
+        <v>0.02056920812632711</v>
+      </c>
+      <c r="R15">
+        <v>24.49613655403926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16">
+        <v>92.12217479834551</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L16">
+        <v>1.999999999999986</v>
+      </c>
+      <c r="M16">
+        <v>1.242741999999991</v>
+      </c>
+      <c r="N16">
         <v>4865822.962046022</v>
       </c>
-      <c r="O15">
-        <v>3729463.867206434</v>
-      </c>
-      <c r="P15">
-        <v>12.7587518357478</v>
-      </c>
-      <c r="Q15">
-        <v>0.02614981122765013</v>
-      </c>
-      <c r="R15">
-        <v>25.96067030926321</v>
+      <c r="O16">
+        <v>4823729.897071396</v>
+      </c>
+      <c r="P16">
+        <v>10.08102367981056</v>
+      </c>
+      <c r="Q16">
+        <v>0.02029868360360829</v>
+      </c>
+      <c r="R16">
+        <v>23.02433988158578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17">
+        <v>92.12217479834548</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>4823729.897071396</v>
+      </c>
+      <c r="O17">
+        <v>4456799.123767665</v>
+      </c>
+      <c r="P17">
+        <v>10.11198017345237</v>
+      </c>
+      <c r="Q17">
+        <v>0.02038810948780464</v>
+      </c>
+      <c r="R17">
+        <v>23.9945384432566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18">
+        <v>92.12217479834557</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L18">
+        <v>7.333333333333343</v>
+      </c>
+      <c r="M18">
+        <v>4.556720666666672</v>
+      </c>
+      <c r="N18">
+        <v>4456799.123767665</v>
+      </c>
+      <c r="O18">
+        <v>4284965.648422578</v>
+      </c>
+      <c r="P18">
+        <v>10.12569039933982</v>
+      </c>
+      <c r="Q18">
+        <v>0.02042811912273964</v>
+      </c>
+      <c r="R18">
+        <v>24.49111394013164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19">
+        <v>91.99458901354754</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L19">
+        <v>9.333333333333329</v>
+      </c>
+      <c r="M19">
+        <v>5.799462666666664</v>
+      </c>
+      <c r="N19">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O19">
+        <v>4666549.112596197</v>
+      </c>
+      <c r="P19">
+        <v>10.12165851845027</v>
+      </c>
+      <c r="Q19">
+        <v>0.0203919619810109</v>
+      </c>
+      <c r="R19">
+        <v>23.42623845699047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20">
+        <v>91.99458901354735</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>4666549.112596197</v>
+      </c>
+      <c r="O20">
+        <v>4286663.098591278</v>
+      </c>
+      <c r="P20">
+        <v>10.15307222012841</v>
+      </c>
+      <c r="Q20">
+        <v>0.02048324471544718</v>
+      </c>
+      <c r="R20">
+        <v>24.48605677657605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21">
+        <v>91.86757273989903</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O21">
+        <v>4504532.999528122</v>
+      </c>
+      <c r="P21">
+        <v>10.16308893744923</v>
+      </c>
+      <c r="Q21">
+        <v>0.02048748515619038</v>
+      </c>
+      <c r="R21">
+        <v>23.8618695178233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22">
+        <v>91.86757273989903</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4504532.999528122</v>
+      </c>
+      <c r="O22">
+        <v>4110155.240724877</v>
+      </c>
+      <c r="P22">
+        <v>10.19497219015108</v>
+      </c>
+      <c r="Q22">
+        <v>0.02058037121995794</v>
+      </c>
+      <c r="R22">
+        <v>25.02779683595519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23">
+        <v>91.86757273989903</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4110155.240724877</v>
+      </c>
+      <c r="O23">
+        <v>3671813.6417473</v>
+      </c>
+      <c r="P23">
+        <v>10.22715310184007</v>
+      </c>
+      <c r="Q23">
+        <v>0.02067641730825224</v>
+      </c>
+      <c r="R23">
+        <v>26.53675764078633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24">
+        <v>91.57959231714685</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N24">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O24">
+        <v>4506841.050669019</v>
+      </c>
+      <c r="P24">
+        <v>10.1312303549115</v>
+      </c>
+      <c r="Q24">
+        <v>0.0204230830489806</v>
+      </c>
+      <c r="R24">
+        <v>23.85551029457501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25">
+        <v>91.57959231714689</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>4506841.050669019</v>
+      </c>
+      <c r="O25">
+        <v>4115231.692118971</v>
+      </c>
+      <c r="P25">
+        <v>10.16301366209049</v>
+      </c>
+      <c r="Q25">
+        <v>0.02051546602321178</v>
+      </c>
+      <c r="R25">
+        <v>25.01177295388178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26">
+        <v>91.57959231714686</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>4115231.692118971</v>
+      </c>
+      <c r="O26">
+        <v>3680370.06381349</v>
+      </c>
+      <c r="P26">
+        <v>10.1950936951748</v>
+      </c>
+      <c r="Q26">
+        <v>0.02061096615431796</v>
+      </c>
+      <c r="R26">
+        <v>26.50481489709014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27">
+        <v>91.29509892413273</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O27">
+        <v>4509113.018016441</v>
+      </c>
+      <c r="P27">
+        <v>10.09975753409903</v>
+      </c>
+      <c r="Q27">
+        <v>0.02035946229089909</v>
+      </c>
+      <c r="R27">
+        <v>23.8492554536651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28">
+        <v>91.29509892413269</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4509113.018016441</v>
+      </c>
+      <c r="O28">
+        <v>4120225.047719234</v>
+      </c>
+      <c r="P28">
+        <v>10.13144210595202</v>
+      </c>
+      <c r="Q28">
+        <v>0.02045134968161054</v>
+      </c>
+      <c r="R28">
+        <v>24.99604135283052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29">
+        <v>91.29509892413263</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4120225.047719234</v>
+      </c>
+      <c r="O29">
+        <v>3688776.942553297</v>
+      </c>
+      <c r="P29">
+        <v>10.16342248192684</v>
+      </c>
+      <c r="Q29">
+        <v>0.02054631105651925</v>
+      </c>
+      <c r="R29">
+        <v>26.47354250474622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30">
+        <v>91.01399329891386</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N30">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O30">
+        <v>4511349.999874886</v>
+      </c>
+      <c r="P30">
+        <v>10.06865949390148</v>
+      </c>
+      <c r="Q30">
+        <v>0.02029660062660992</v>
+      </c>
+      <c r="R30">
+        <v>23.84310173402731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31">
+        <v>91.01399329891385</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L31">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M31">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N31">
+        <v>4511349.999874886</v>
+      </c>
+      <c r="O31">
+        <v>4125137.908766091</v>
+      </c>
+      <c r="P31">
+        <v>10.10024650617587</v>
+      </c>
+      <c r="Q31">
+        <v>0.02038799972594251</v>
+      </c>
+      <c r="R31">
+        <v>24.98059228461154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32">
+        <v>91.0139932989138</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L32">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M32">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N32">
+        <v>4125137.908766091</v>
+      </c>
+      <c r="O32">
+        <v>3697039.184742516</v>
+      </c>
+      <c r="P32">
+        <v>10.1321284117652</v>
+      </c>
+      <c r="Q32">
+        <v>0.02048242939549808</v>
+      </c>
+      <c r="R32">
+        <v>26.4429157419176</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +3886,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2808,58 +3894,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2870,13 +3956,13 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F2">
         <v>23.33333333333333</v>
@@ -2885,22 +3971,22 @@
         <v>14.49865666666667</v>
       </c>
       <c r="H2">
-        <v>1.190069064372404</v>
+        <v>1.196598167736171</v>
       </c>
       <c r="I2">
-        <v>41.57168729543383</v>
+        <v>44.16554452507287</v>
       </c>
       <c r="J2">
-        <v>4.349511919460442</v>
+        <v>4.620898857823486</v>
       </c>
       <c r="K2">
-        <v>5832.782474234841</v>
+        <v>6196.717786318451</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.349511919460442</v>
+        <v>4.620898857823486</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2909,13 +3995,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>13045502.1393753</v>
+        <v>13447784.74391999</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>13045502.1393753</v>
+        <v>13447784.74391999</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2926,13 +4012,13 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F3">
         <v>46.66666666666666</v>
@@ -2941,22 +4027,22 @@
         <v>28.99731333333333</v>
       </c>
       <c r="H3">
-        <v>1.189168222587035</v>
+        <v>1.195601156615998</v>
       </c>
       <c r="I3">
-        <v>41.30942258065881</v>
+        <v>43.86082644500153</v>
       </c>
       <c r="J3">
-        <v>4.322072005971697</v>
+        <v>4.589017185282112</v>
       </c>
       <c r="K3">
-        <v>5795.985001448165</v>
+        <v>6153.963825807017</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.322072005971697</v>
+        <v>4.589017185282112</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -2965,13 +4051,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>13004891.62591088</v>
+        <v>13400466.03344767</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>13004891.62591088</v>
+        <v>13400466.03344767</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2979,13 +4065,13 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F4">
         <v>70</v>
@@ -2994,16 +4080,16 @@
         <v>43.49597</v>
       </c>
       <c r="H4">
-        <v>1.188272516231012</v>
+        <v>1.194598937317421</v>
       </c>
       <c r="I4">
-        <v>41.04929248492122</v>
+        <v>43.55604290389126</v>
       </c>
       <c r="J4">
-        <v>4.29485543080648</v>
+        <v>4.557128663762801</v>
       </c>
       <c r="K4">
-        <v>5759.487029820106</v>
+        <v>6111.200680679191</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3035,37 +4121,37 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F5">
-        <v>102.5</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>63.6905275</v>
+        <v>59.651616</v>
       </c>
       <c r="H5">
-        <v>1.292333214209756</v>
+        <v>1.223843312116393</v>
       </c>
       <c r="I5">
-        <v>50.79278629365618</v>
+        <v>49.69682613490681</v>
       </c>
       <c r="J5">
-        <v>5.314285846442668</v>
+        <v>5.199619060371232</v>
       </c>
       <c r="K5">
-        <v>7126.563605796547</v>
+        <v>6972.793152339029</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.314285846442668</v>
+        <v>5.199619060371232</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -3074,13 +4160,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>14480848.75850993</v>
+        <v>14309488.92802266</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>14480848.75850993</v>
+        <v>14309488.92802266</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3091,37 +4177,37 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F6">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G6">
-        <v>83.885085</v>
+        <v>75.80726200000001</v>
       </c>
       <c r="H6">
-        <v>1.174716590573766</v>
+        <v>1.153166220920455</v>
       </c>
       <c r="I6">
-        <v>31.37148180794605</v>
+        <v>28.40604334386236</v>
       </c>
       <c r="J6">
-        <v>3.28229722996558</v>
+        <v>2.972032942295563</v>
       </c>
       <c r="K6">
-        <v>4401.626231328441</v>
+        <v>3985.555616277196</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.28229722996558</v>
+        <v>2.972032942295563</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -3130,13 +4216,13 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>11474741.13582819</v>
+        <v>11021433.00223319</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>11474741.13582819</v>
+        <v>11021433.00223319</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3147,37 +4233,37 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F7">
-        <v>167.5</v>
+        <v>148</v>
       </c>
       <c r="G7">
-        <v>104.0796425</v>
+        <v>91.96290800000001</v>
       </c>
       <c r="H7">
-        <v>1.173969869588341</v>
+        <v>1.136003719824769</v>
       </c>
       <c r="I7">
-        <v>31.19115559178876</v>
+        <v>25.42742033087925</v>
       </c>
       <c r="J7">
-        <v>3.263430278018371</v>
+        <v>2.660389197684499</v>
       </c>
       <c r="K7">
-        <v>4376.325271428196</v>
+        <v>3567.635121878867</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.263430278018371</v>
+        <v>2.660389197684499</v>
       </c>
       <c r="N7">
         <v>0.78</v>
@@ -3186,51 +4272,54 @@
         <v>0.357</v>
       </c>
       <c r="P7">
-        <v>11447132.70965788</v>
+        <v>10567628.10021256</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>11447132.70965788</v>
+        <v>10567628.10021256</v>
       </c>
     </row>
     <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G8">
-        <v>124.2742</v>
+        <v>108.118554</v>
       </c>
       <c r="H8">
-        <v>1.173225402076636</v>
+        <v>1.135557052560567</v>
       </c>
       <c r="I8">
-        <v>31.01189405256319</v>
+        <v>25.31463175758476</v>
       </c>
       <c r="J8">
-        <v>3.244674719793817</v>
+        <v>2.64858849206394</v>
       </c>
       <c r="K8">
-        <v>4351.173692737905</v>
+        <v>3551.810139627585</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.5</v>
+        <v>2.64858849206394</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -3239,54 +4328,51 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>10550474.22654086</v>
       </c>
       <c r="Q8">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>16916025.69007904</v>
+        <v>10550474.22654086</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9">
-        <v>2</v>
-      </c>
       <c r="B9" t="s">
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>155.34275</v>
+        <v>124.2742</v>
       </c>
       <c r="H9">
-        <v>1.312726314209953</v>
+        <v>1.135107390092091</v>
       </c>
       <c r="I9">
-        <v>53.58783380275355</v>
+        <v>25.20163354951717</v>
       </c>
       <c r="J9">
-        <v>5.606722676583372</v>
+        <v>2.636765853031398</v>
       </c>
       <c r="K9">
-        <v>7518.727243751833</v>
+        <v>3535.955744232165</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.606722676583372</v>
+        <v>12.5</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -3295,51 +4381,54 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>14918803.7704137</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R9">
-        <v>14918803.7704137</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" t="s">
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="F10">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G10">
-        <v>186.4113</v>
+        <v>155.34275</v>
       </c>
       <c r="H10">
-        <v>1.309996670761145</v>
+        <v>1.325182440285976</v>
       </c>
       <c r="I10">
-        <v>53.00601405884097</v>
+        <v>57.13895452268778</v>
       </c>
       <c r="J10">
-        <v>5.545848748297974</v>
+        <v>5.97826501473844</v>
       </c>
       <c r="K10">
-        <v>7437.094088442549</v>
+        <v>8016.972950064543</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.5</v>
+        <v>5.97826501473844</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -3348,54 +4437,51 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>15477160.67336135</v>
       </c>
       <c r="Q10">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>16916025.69007904</v>
+        <v>15477160.67336135</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11">
-        <v>3</v>
-      </c>
       <c r="B11" t="s">
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="F11">
-        <v>350</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G11">
-        <v>217.47985</v>
+        <v>186.4113</v>
       </c>
       <c r="H11">
-        <v>1.307321034162082</v>
+        <v>1.322101548941576</v>
       </c>
       <c r="I11">
-        <v>52.43611621812924</v>
+        <v>56.44708376384304</v>
       </c>
       <c r="J11">
-        <v>5.486222170395695</v>
+        <v>5.905876802758123</v>
       </c>
       <c r="K11">
-        <v>7357.133654944034</v>
+        <v>7919.898910034698</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.486222170395695</v>
+        <v>12.5</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -3404,13 +4490,69 @@
         <v>0.357</v>
       </c>
       <c r="P11">
-        <v>14738179.20301044</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R11">
-        <v>14738179.20301044</v>
+        <v>16916025.69007904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12">
+        <v>350.0000000000001</v>
+      </c>
+      <c r="G12">
+        <v>217.47985</v>
+      </c>
+      <c r="H12">
+        <v>1.319088423567839</v>
+      </c>
+      <c r="I12">
+        <v>55.77490782861931</v>
+      </c>
+      <c r="J12">
+        <v>5.83554919682159</v>
+      </c>
+      <c r="K12">
+        <v>7825.588183921689</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.83554919682159</v>
+      </c>
+      <c r="N12">
+        <v>0.78</v>
+      </c>
+      <c r="O12">
+        <v>0.357</v>
+      </c>
+      <c r="P12">
+        <v>15262430.26759074</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>15262430.26759074</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +4562,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3428,15 +4570,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3444,55 +4586,55 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B3">
-        <v>4088689.562409612</v>
+        <v>4427462.918581173</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="B4">
-        <v>4865822.962046022</v>
+        <v>4066380.087520617</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B5">
-        <v>4327372.907744729</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B6">
-        <v>4091786.905859647</v>
+        <v>4760595.472101057</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B7">
-        <v>4865822.962046022</v>
+        <v>4312888.561809869</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B8">
-        <v>4094871.248456996</v>
+        <v>4069771.039548116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>4865822.962046022</v>
@@ -3500,23 +4642,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B10">
-        <v>3791909.921882425</v>
+        <v>4599097.546686064</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B11">
-        <v>3765145.790995867</v>
+        <v>4073185.409801771</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>4865822.962046022</v>
@@ -3524,55 +4666,55 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B13">
-        <v>4142125.00367379</v>
+        <v>4349434.559984447</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="B14">
-        <v>4865822.962046022</v>
+        <v>3975854.518199351</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B15">
-        <v>4547542.066325596</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B16">
-        <v>4144759.66385087</v>
+        <v>4693014.32323207</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B17">
-        <v>4865822.962046022</v>
+        <v>4324128.083916678</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="B18">
-        <v>4147389.711672968</v>
+        <v>4219533.033288239</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B19">
         <v>4865822.962046022</v>
@@ -3580,58 +4722,202 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B20">
-        <v>3706654.547390902</v>
+        <v>4610217.933448978</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="B21">
-        <v>4865822.962046022</v>
+        <v>4283280.835380175</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B22">
-        <v>3714378.113051876</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B23">
-        <v>4865822.962046022</v>
+        <v>4823729.897071396</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B24">
-        <v>3721980.167759434</v>
+        <v>4456799.123767665</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="B25">
-        <v>4865822.962046022</v>
+        <v>4284965.648422578</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B26">
-        <v>3729463.867206434</v>
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27">
+        <v>4666549.112596197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28">
+        <v>4286663.098591278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30">
+        <v>4504532.999528122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31">
+        <v>4110155.240724877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32">
+        <v>3671813.6417473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34">
+        <v>4506841.050669019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35">
+        <v>4115231.692118971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>3680370.06381349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38">
+        <v>4509113.018016441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39">
+        <v>4120225.047719234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40">
+        <v>3688776.942553297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42">
+        <v>4511349.999874886</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43">
+        <v>4125137.908766091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44">
+        <v>3697039.184742516</v>
       </c>
     </row>
   </sheetData>
@@ -3649,36 +4935,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565087060738</v>
+        <v>19.7856508665618</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -3687,21 +4973,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400227476</v>
+        <v>1150.520399992228</v>
       </c>
       <c r="G2">
-        <v>1.977152549848717E-08</v>
+        <v>-6.755590080814732E-10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156552292</v>
+        <v>51.4426915655229</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -3710,21 +4996,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353</v>
+        <v>2991.352999999999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-4.143694939766576E-14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130173339092</v>
+        <v>39.5713017333909</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -3733,10 +5019,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.0408</v>
+        <v>2301.040799999999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-3.591202233109923E-14</v>
       </c>
     </row>
   </sheetData>
